--- a/medicine/Mort/Décès_en_1949/Décès_en_1949.xlsx
+++ b/medicine/Mort/Décès_en_1949/Décès_en_1949.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1949</t>
+          <t>Décès_en_1949</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1949</t>
+          <t>Décès_en_1949</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,15 +540,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Élisa Beetz-Charpentier, sculptrice, médailleuse et peintre franco-belge (° 1859).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Élisa Beetz-Charpentier, sculptrice, médailleuse et peintre franco-belge (° 1859).
 Mohammad Ghazvini, littérateur iranien (° 1874).
 Lazzaro Pasini, peintre italien (° 1861).
 Attilio Pratella, peintre italien (° 1856).
 Konstantin Roudakov, graphiste et enseignant russe puis soviétique (° 26 mars 1891).
-Henri de Saint-Delis, peintre français (° 1878).
-Janvier
-1er janvier : Gabriella Borgarino, religieuse italienne, mystique (° 2 septembre 1880).
+Henri de Saint-Delis, peintre français (° 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Gabriella Borgarino, religieuse italienne, mystique (° 2 septembre 1880).
 2 janvier : Dynam-Victor Fumet, compositeur et organiste français (° 4 mai 1867).
 3 janvier : : Alexandre Drankov, producteur, réalisateur et directeur de la photographie soviétique puis russe (° 18 janvier 1886).
 5 janvier : Yvette Sadoux, rameuse française (° 15 décembre 1900).
@@ -556,9 +607,43 @@
 23 janvier : Erich Klossowski, historien de l'art et un peintre français d'origine polonaise mais originellement de nationalité prussienne (° 19 décembre 1875).
 27 janvier : Boris Assafiev, compositeur et critique russe (° 29 juillet 1884).
 28 janvier : Jean-Pierre Wimille, coureur automobile (° 26 février 1908).
-31 janvier : Otto Hupp, héraldiste, dessinateur et graveur allemand (° 21 mai 1859).
-Février
-4 février : Eugène Chéreau, coureur cycliste français (° 11 février 1866).
+31 janvier : Otto Hupp, héraldiste, dessinateur et graveur allemand (° 21 mai 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février : Eugène Chéreau, coureur cycliste français (° 11 février 1866).
 10 février : Max Houben, bobeur, athlète et footballeur belge (° 5 mai 1898).
 14 février : Paul Élie Dubois, peintre français, rattaché à l'École d'Alger (° 20 octobre 1886).
 16 février : Umberto Brunelleschi, peintre, illustrateur et affichiste italien (° 21 juin 1879).
@@ -566,9 +651,43 @@
 24 février :
 Roman Bohnen, acteur américain (° 24 novembre 1901).
 Eduardo Leon Garrido, peintre français d'origine espagnole (° 20 février 1856).
-25 février : Juan Tellería, compositeur basque espagnol (° 12 juillet 1895).
-Mars
-9 mars : Axel Charpentier, avocat finlandais (° 4 juillet 1865).
+25 février : Juan Tellería, compositeur basque espagnol (° 12 juillet 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9 mars : Axel Charpentier, avocat finlandais (° 4 juillet 1865).
 11 mars :
 Henry d'Estienne, peintre français (° 1er août 1872).
 Joan Lamote de Grignon, chef d'orchestre et compositeur espagnol (° 7 juillet 1872).
@@ -578,9 +697,43 @@
 25 mars : Achille Bron, peintre français (° 7 décembre 1867).
 26 mars : Léon Level, coureur cycliste français (° 12 juillet 1910).
 30 mars : Thérèse Lemoine-Lagron, peintre aquarelliste française (° 23 août 1891).
-? mars : François-Étienne Lahaye, peintre symboliste français (° 3 août 1878).
-Avril
-2 avril : Carlo Galetti, coureur cycliste italien (° 26 août 1882).
+? mars : François-Étienne Lahaye, peintre symboliste français (° 3 août 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Carlo Galetti, coureur cycliste italien (° 26 août 1882).
 7 avril : John Gourlay, footballeur international canadien (° 26 juillet 1872).
 13 avril : C.V. France, acteur anglais (° 30 juin 1868).
 15 avril : Wallace Beery, acteur américain (° 1er avril 1885).
@@ -590,9 +743,43 @@
 20 avril : Léonard Sarluis, peintre et illustrateur d'origine hollandaise naturalisé français (° 21 octobre 1874).
 25 avril : Jankel Adler, peintre et graveur juif polonais (° 26 juillet 1895).
 28 avril : Aurora Quezon, féministe et philanthrope, épouse du président philippin (° 19 février 1888).
-? avril : Arsène Chabanian, peintre français d'origine arménienne (° 1864).
-Mai
-1er mai :
+? avril : Arsène Chabanian, peintre français d'origine arménienne (° 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai :
 Jay Belasco, acteur américain (° 11 janvier 1888).
 Gheorghe Petrașcu, peintre roumain (° 5 décembre 1872).
 4 mai : Roger Grava, footballeur français d'origine italienne (° 26 avril 1922).
@@ -607,9 +794,43 @@
 24 mai : Rosita Renard, pianiste chilienne (° 8 février 1894).
 25 mai : Dorothea Conyers, romancière irlandaise (° 11 novembre 1869).
 29 mai : Vladimir Tsybine, compositeur, flûtiste et chef d'orchestre russe puis soviétique (° 11 juillet 1877).
-30 mai : Emmanuel Suhard, cardinal français, archevêque de Paris (° 5 avril 1874).
-Juin
-2 juin : François Blais, homme politique fédéral provenant du Québec (° 22 août 1875).
+30 mai : Emmanuel Suhard, cardinal français, archevêque de Paris (° 5 avril 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : François Blais, homme politique fédéral provenant du Québec (° 22 août 1875).
 5 juin :
 Émile Jennissen, homme politique belge (° 11 novembre 1882).
 Emilia Malessa, membre de l'Armia Krajowa (° 26 février 1909).
@@ -622,9 +843,43 @@
 23 juin : Yrjö Johannes Eskelä, homme politique finlandais (° 11 février 1886).
 26 juin : Kim Koo, résistant et homme politique coréen (° 11 juillet 1876).
 27 juin : Paul Rehkopf, acteur allemand (° 21 mai 1872).
-28 juin : Matej Sternen, peintre austro-hongrois puis yougoslave (° 20 septembre 1870).
-Juillet
-2 juillet :
+28 juin : Matej Sternen, peintre austro-hongrois puis yougoslave (° 20 septembre 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet :
 Georgi Dimitrov, homme politique bulgare (° 18 juin 1882).
 Guillaume de Van, musicologue et chef de chœur français d'origine américaine (° 3 juillet 1906).
 9 juillet : Georges Binet, peintre français (° 30 avril 1865).
@@ -632,9 +887,43 @@
 16 juillet : Vyacheslav Ivanov, poète, philosophe, dramaturge et traducteur russe (° 16 février 1866).
 18 juillet : Bernhard Hoetger, sculpteur et peintre allemand (° 4 mai 1874).
 19 juillet : Georges Klaenschi, peintre et collectionneur de figurines français (° 12 mai 1882).
-28 juillet : Adrien Godien, peintre français (° 14 mai 1873).
-Août
-5 août : Ernest Fourneau, chimiste et pharmacologue français (° 4 octobre 1872).
+28 juillet : Adrien Godien, peintre français (° 14 mai 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5 août : Ernest Fourneau, chimiste et pharmacologue français (° 4 octobre 1872).
 7 août : Emili Sagi i Barba, chanteur baryton catalan (° 26 mars 1849).
 8 août : Joaquín Torres García, peintre muraliste, sculpteur, écrivain, enseignant et théoricien hispano-uruguayen (° 28 juillet 1874).
 11 août :
@@ -649,9 +938,43 @@
 Herbert Greenfield, premier ministre de l'Alberta (° 25 novembre 1869).
 Arnó Stern, peintre polonais (° 12 août 1888).
 27 août : Shōen Uemura, peintre japonaise (° 23 avril 1875).
-28 août : Paul-Émile Colin, graveur et peintre français (° 16 août 1867).
-Septembre
-1er septembre : Robert Dupont, peintre français (° 28 juillet 1874).
+28 août : Paul-Émile Colin, graveur et peintre français (° 16 août 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Robert Dupont, peintre français (° 28 juillet 1874).
 3 septembre : Robert Walthour Senior, coureur cycliste américain (° 1er janvier 1878).
 4 septembre : Paul Chocque, coureur cycliste français (° 14 juillet 1910).
 7 septembre : José Clemente Orozco, peintre mexicain muraliste (° 23 novembre 1883).
@@ -663,9 +986,43 @@
 19 septembre : Nikos Skalkottas, compositeur et violoniste grec (° 8 mars 1904).
 24 septembre : Pierre de Bréville, compositeur français (° 21 février 1861).
 25 septembre : Henri Manguin, peintre et graveur français (° 23 mars 1874).
-29 septembre : Louis-Marie Désiré-Lucas, peintre et lithographe français (° 15 octobre 1869).
-Octobre
-3 octobre : Mit'hat Frashëri, diplomate, écrivain et homme politique albanais (° 25 mars 1880).
+29 septembre : Louis-Marie Désiré-Lucas, peintre et lithographe français (° 15 octobre 1869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Mit'hat Frashëri, diplomate, écrivain et homme politique albanais (° 25 mars 1880).
 7 octobre : Bertha Züricher, peintre suisse (° 20 mars 1869).
 8 octobre : Leonor Michaelis, biochimiste et médecin allemand (° 16 janvier 1875).
 14 octobre : Dolf van der Nagel, footballeur international néerlandais (° 28 mai 1889).
@@ -681,9 +1038,43 @@
 Marcel Cerdan, boxeur français (° 22 juillet 1916).
 Ginette Neveu, violoniste française (° 11 août 1919).
 29 octobre : G.I. Gurdjieff, occultiste arménien (° 27 décembre 1877).
-31 octobre : Adele Juda, psychiatre et neurologue autrichienne (° 9 mars 1888).
-Novembre
-2 novembre : Paul-Michel Dupuy, peintre français  (° 22 mars 1869).
+31 octobre : Adele Juda, psychiatre et neurologue autrichienne (° 9 mars 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre : Paul-Michel Dupuy, peintre français  (° 22 mars 1869).
 5 novembre : Léon Georget, coureur cycliste français (° 2 octobre 1879).
 13 novembre : Tsuchiya Koitsu, artiste et peintre japonais de l’école Shin-Hanga (° 23 septembre 1870).
 17 novembre : Theresa Serber Malkiel, socialite américaine d'origine ukrainienne (° 1er mai 1874).
@@ -697,9 +1088,43 @@
 26 novembre : Alexandre Roubtzoff, peintre russe naturalisé français (° 24 janvier 1884).
 27 novembre :
 Vincenzo Irolli, peintre italien (° 30 septembre 1860).
-Tom Walls, acteur, réalisateur, producteur et scénariste britannique (° 18 février 1883).
-Décembre
-2 décembre : Fernande Sadler, artiste peintre et historienne française (° 7 juillet 1869).
+Tom Walls, acteur, réalisateur, producteur et scénariste britannique (° 18 février 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1949</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1949</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Fernande Sadler, artiste peintre et historienne française (° 7 juillet 1869).
 5 décembre :
 Coutisson des Bordes, peintre français (° 2 avril 1885).
 Alfred James Lotka, mathématicien et statisticien américain (° 2 mars 1880).
